--- a/config_6.8/game_activity_config.xlsx
+++ b/config_6.8/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$61</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="169">
   <si>
     <t>line|行号</t>
   </si>
@@ -621,16 +621,22 @@
   <si>
     <t>欢乐消除</t>
   </si>
+  <si>
+    <t>端午福袋</t>
+  </si>
+  <si>
+    <t>祈福有礼</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -685,7 +691,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,31 +725,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +735,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,8 +749,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -774,10 +780,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,13 +798,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -806,15 +820,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,7 +877,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,79 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,19 +943,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,49 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,6 +1010,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,15 +1086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1100,6 +1097,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,6 +1140,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1146,23 +1167,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,145 +1191,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1777,14 +1783,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4416,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="20" t="s">
         <v>66</v>
@@ -4463,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="20" t="s">
         <v>66</v>
@@ -4507,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="6">
         <v>1622505600</v>
@@ -4551,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="30" t="s">
         <v>69</v>
@@ -4578,8 +4584,190 @@
         <v>15</v>
       </c>
     </row>
+    <row r="62" ht="14.25" spans="1:15">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="8">
+        <v>61</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="I62" s="6">
+        <v>1623110400</v>
+      </c>
+      <c r="J62" s="6">
+        <v>1623686399</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:15">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="8">
+        <v>62</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="6">
+        <v>2</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1623110400</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1623686399</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:15">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="8">
+        <v>63</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="6">
+        <v>3</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1623110400</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1623686399</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M64" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="1:15">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="8">
+        <v>64</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1623110400</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1623686399</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M65" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="N65" s="6">
+        <v>1</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O57">
+  <autoFilter ref="A1:O61">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_6.8/game_activity_config.xlsx
+++ b/config_6.8/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$65</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -116,24 +116,27 @@
     <t>yylb</t>
   </si>
   <si>
+    <t>prefab</t>
+  </si>
+  <si>
+    <t>gift_one_yuan</t>
+  </si>
+  <si>
+    <t>"gift_one_yuan","panel3_in_act"</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>礼包兑换</t>
+  </si>
+  <si>
+    <t>lbdh</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
-    <t>3ylb_dk_bg</t>
-  </si>
-  <si>
-    <t>"hall_gift",10</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>礼包兑换</t>
-  </si>
-  <si>
-    <t>lbdh</t>
-  </si>
-  <si>
     <t>lbdh_dk_bg</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
   </si>
   <si>
     <t>vip1_buygift</t>
-  </si>
-  <si>
-    <t>prefab</t>
   </si>
   <si>
     <t>act_023_vip2ztlb</t>
@@ -634,8 +634,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -691,35 +691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,48 +705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,10 +721,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,9 +757,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,6 +773,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,16 +833,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -877,7 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,19 +895,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,37 +955,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,13 +985,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,31 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,13 +1027,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,25 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,21 +1087,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1112,6 +1097,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,15 +1121,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1149,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1191,10 +1191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,139 +1203,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,6 +1443,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1786,11 +1789,11 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1898,7 +1901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:15">
+    <row r="3" s="2" customFormat="1" ht="15.75" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1926,13 +1929,13 @@
       <c r="J3" s="2">
         <v>-1</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="K3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="36" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="2">
@@ -1972,13 +1975,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -1998,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -2008,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2">
         <v>1585611000</v>
@@ -2017,7 +2020,7 @@
         <v>-1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>32</v>
@@ -2061,7 +2064,7 @@
         <v>-1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>36</v>
@@ -2105,7 +2108,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>40</v>
@@ -2146,7 +2149,7 @@
         <v>-1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>43</v>
@@ -2190,7 +2193,7 @@
         <v>-1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>47</v>
@@ -2234,7 +2237,7 @@
         <v>-1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>51</v>
@@ -2272,14 +2275,14 @@
         <v>0</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="36">
+      <c r="I11" s="37">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="37">
         <v>1615219199</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>56</v>
@@ -2326,7 +2329,7 @@
         <v>1618243199</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>56</v>
@@ -2362,14 +2365,14 @@
         <v>0</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="36">
+      <c r="I13" s="37">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="37">
         <v>1613404799</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>56</v>
@@ -2409,14 +2412,14 @@
       <c r="H14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="37">
         <v>1617667200</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="37">
         <v>1618243199</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>56</v>
@@ -2456,14 +2459,14 @@
       <c r="H15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="37">
         <v>1617667200</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="37">
         <v>1618243199</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>56</v>
@@ -2503,14 +2506,14 @@
       <c r="H16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="37">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="37">
         <v>1615219199</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>56</v>
@@ -2547,14 +2550,14 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="37">
         <v>1612828800</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="37">
         <v>1613404799</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>56</v>
@@ -2598,7 +2601,7 @@
         <v>1618243199</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>56</v>
@@ -2635,14 +2638,14 @@
       <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="37">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="37">
         <v>1613404799</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>83</v>
@@ -2683,7 +2686,7 @@
         <v>1614009599</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>56</v>
@@ -2724,7 +2727,7 @@
         <v>1614009599</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>56</v>
@@ -2768,7 +2771,7 @@
         <v>1614009599</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>56</v>
@@ -2815,7 +2818,7 @@
         <v>1617638399</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>56</v>
@@ -2860,7 +2863,7 @@
         <v>1614614399</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>56</v>
@@ -2903,7 +2906,7 @@
         <v>1621871999</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>56</v>
@@ -2950,7 +2953,7 @@
         <v>1616428799</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>56</v>
@@ -2997,7 +3000,7 @@
         <v>1616428799</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>56</v>
@@ -3038,7 +3041,7 @@
         <v>1614614399</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>56</v>
@@ -3079,7 +3082,7 @@
         <v>-1</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>100</v>
@@ -3126,7 +3129,7 @@
         <v>1618243199</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>56</v>
@@ -3173,7 +3176,7 @@
         <v>1618243199</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L31" s="15" t="s">
         <v>56</v>
@@ -3220,7 +3223,7 @@
         <v>1618243199</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>56</v>
@@ -3267,7 +3270,7 @@
         <v>1618243199</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>56</v>
@@ -3314,7 +3317,7 @@
         <v>1621871999</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>117</v>
@@ -3360,13 +3363,13 @@
       <c r="J35" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K35" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="37" t="s">
+      <c r="K35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="37" t="s">
+      <c r="M35" s="38" t="s">
         <v>106</v>
       </c>
       <c r="N35" s="5">
@@ -3407,13 +3410,13 @@
       <c r="J36" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K36" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="37" t="s">
+      <c r="K36" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="37" t="s">
+      <c r="M36" s="38" t="s">
         <v>109</v>
       </c>
       <c r="N36" s="5">
@@ -3454,13 +3457,13 @@
       <c r="J37" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K37" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="37" t="s">
+      <c r="K37" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="38" t="s">
         <v>112</v>
       </c>
       <c r="N37" s="5">
@@ -3501,13 +3504,13 @@
       <c r="J38" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K38" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="37" t="s">
+      <c r="K38" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M38" s="37" t="s">
+      <c r="M38" s="38" t="s">
         <v>115</v>
       </c>
       <c r="N38" s="5">
@@ -3548,8 +3551,8 @@
       <c r="J39" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K39" s="37" t="s">
-        <v>31</v>
+      <c r="K39" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>127</v>
@@ -3595,8 +3598,8 @@
       <c r="J40" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K40" s="37" t="s">
-        <v>31</v>
+      <c r="K40" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>131</v>
@@ -3639,8 +3642,8 @@
       <c r="J41" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K41" s="37" t="s">
-        <v>31</v>
+      <c r="K41" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>134</v>
@@ -3687,7 +3690,7 @@
         <v>1618847999</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>139</v>
@@ -3734,7 +3737,7 @@
         <v>1620662399</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>121</v>
@@ -3781,7 +3784,7 @@
         <v>1620662399</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>121</v>
@@ -3821,14 +3824,14 @@
       <c r="H45" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="39">
         <v>1620691200</v>
       </c>
       <c r="J45" s="6">
         <v>1621267199</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>131</v>
@@ -3868,14 +3871,14 @@
       <c r="H46" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="39">
         <v>1620691200</v>
       </c>
       <c r="J46" s="6">
         <v>1621267199</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>144</v>
@@ -3922,9 +3925,9 @@
         <v>1621871999</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="40" t="s">
         <v>134</v>
       </c>
       <c r="M47" s="30" t="s">
@@ -3962,19 +3965,19 @@
       <c r="H48" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="39">
         <v>1620691200</v>
       </c>
       <c r="J48" s="6">
         <v>1621267199</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="40" t="s">
+      <c r="M48" s="41" t="s">
         <v>148</v>
       </c>
       <c r="N48" s="5">
@@ -4009,19 +4012,19 @@
       <c r="H49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="39">
         <v>1620691200</v>
       </c>
       <c r="J49" s="6">
         <v>1621267199</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="40" t="s">
+      <c r="M49" s="41" t="s">
         <v>149</v>
       </c>
       <c r="N49" s="5">
@@ -4056,19 +4059,19 @@
       <c r="H50" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="39">
         <v>1620691200</v>
       </c>
       <c r="J50" s="6">
         <v>1621267199</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="41" t="s">
         <v>152</v>
       </c>
       <c r="N50" s="5">
@@ -4110,7 +4113,7 @@
         <v>1621871999</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>131</v>
@@ -4152,12 +4155,12 @@
         <v>1622476799</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M52" s="40" t="s">
+      <c r="M52" s="41" t="s">
         <v>156</v>
       </c>
       <c r="N52" s="6">
@@ -4199,12 +4202,12 @@
         <v>1622476799</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="41" t="s">
+      <c r="M53" s="42" t="s">
         <v>57</v>
       </c>
       <c r="N53" s="6">
@@ -4246,7 +4249,7 @@
         <v>1622476799</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>131</v>
@@ -4293,9 +4296,9 @@
         <v>1622476799</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="40" t="s">
         <v>134</v>
       </c>
       <c r="M55" s="30" t="s">
@@ -4340,12 +4343,12 @@
         <v>1622476799</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M56" s="40" t="s">
+      <c r="M56" s="41" t="s">
         <v>162</v>
       </c>
       <c r="N56" s="6">
@@ -4387,12 +4390,12 @@
         <v>1622476799</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M57" s="40" t="s">
+      <c r="M57" s="41" t="s">
         <v>163</v>
       </c>
       <c r="N57" s="6">
@@ -4434,12 +4437,12 @@
         <v>1623081599</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="M58" s="41" t="s">
+      <c r="M58" s="42" t="s">
         <v>57</v>
       </c>
       <c r="N58" s="6">
@@ -4481,7 +4484,7 @@
         <v>1623081599</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>131</v>
@@ -4522,7 +4525,7 @@
         <v>1623081599</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>131</v>
@@ -4569,9 +4572,9 @@
         <v>1623081599</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="40" t="s">
         <v>134</v>
       </c>
       <c r="M61" s="30" t="s">
@@ -4610,7 +4613,7 @@
         <v>1623686399</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L62" s="6" t="s">
         <v>121</v>
@@ -4657,7 +4660,7 @@
         <v>1623686399</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>117</v>
@@ -4704,7 +4707,7 @@
         <v>1623686399</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>131</v>
@@ -4751,9 +4754,9 @@
         <v>1623686399</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="40" t="s">
         <v>134</v>
       </c>
       <c r="M65" s="30" t="s">
@@ -4767,7 +4770,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O61">
+  <autoFilter ref="A1:O65">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_6.8/game_activity_config.xlsx
+++ b/config_6.8/game_activity_config.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="171">
   <si>
     <t>line|行号</t>
   </si>
@@ -619,6 +619,12 @@
     <t>欢乐榜单</t>
   </si>
   <si>
+    <t>全cpl</t>
+  </si>
+  <si>
+    <t>txz_type_plat</t>
+  </si>
+  <si>
     <t>欢乐消除</t>
   </si>
   <si>
@@ -633,10 +639,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -691,6 +697,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -698,10 +718,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -712,8 +732,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -728,8 +792,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -737,13 +809,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,60 +832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,21 +840,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,7 +883,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,25 +997,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,25 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,49 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,61 +1051,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,16 +1093,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1112,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,32 +1166,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,17 +1189,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1191,10 +1197,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,139 +1209,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,9 +1449,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1789,11 +1792,11 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1929,13 +1932,13 @@
       <c r="J3" s="2">
         <v>-1</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="2">
@@ -2275,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>1615219199</v>
       </c>
       <c r="K11" s="15" t="s">
@@ -2365,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>1613404799</v>
       </c>
       <c r="K13" s="15" t="s">
@@ -2412,10 +2415,10 @@
       <c r="H14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>1617667200</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>1618243199</v>
       </c>
       <c r="K14" s="15" t="s">
@@ -2459,10 +2462,10 @@
       <c r="H15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>1617667200</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>1618243199</v>
       </c>
       <c r="K15" s="15" t="s">
@@ -2506,10 +2509,10 @@
       <c r="H16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>1615219199</v>
       </c>
       <c r="K16" s="15" t="s">
@@ -2550,10 +2553,10 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>1612828800</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>1613404799</v>
       </c>
       <c r="K17" s="15" t="s">
@@ -2638,10 +2641,10 @@
       <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>1613404799</v>
       </c>
       <c r="K19" s="15" t="s">
@@ -3363,13 +3366,13 @@
       <c r="J35" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="38" t="s">
+      <c r="K35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M35" s="37" t="s">
         <v>106</v>
       </c>
       <c r="N35" s="5">
@@ -3410,13 +3413,13 @@
       <c r="J36" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K36" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="38" t="s">
+      <c r="K36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="38" t="s">
+      <c r="M36" s="37" t="s">
         <v>109</v>
       </c>
       <c r="N36" s="5">
@@ -3457,13 +3460,13 @@
       <c r="J37" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K37" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="38" t="s">
+      <c r="K37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M37" s="38" t="s">
+      <c r="M37" s="37" t="s">
         <v>112</v>
       </c>
       <c r="N37" s="5">
@@ -3504,13 +3507,13 @@
       <c r="J38" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K38" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="38" t="s">
+      <c r="K38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M38" s="38" t="s">
+      <c r="M38" s="37" t="s">
         <v>115</v>
       </c>
       <c r="N38" s="5">
@@ -3551,7 +3554,7 @@
       <c r="J39" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K39" s="38" t="s">
+      <c r="K39" s="37" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -3598,7 +3601,7 @@
       <c r="J40" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K40" s="38" t="s">
+      <c r="K40" s="37" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -3642,7 +3645,7 @@
       <c r="J41" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K41" s="38" t="s">
+      <c r="K41" s="37" t="s">
         <v>21</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -3824,7 +3827,7 @@
       <c r="H45" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="39">
+      <c r="I45" s="38">
         <v>1620691200</v>
       </c>
       <c r="J45" s="6">
@@ -3871,7 +3874,7 @@
       <c r="H46" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="39">
+      <c r="I46" s="38">
         <v>1620691200</v>
       </c>
       <c r="J46" s="6">
@@ -3927,7 +3930,7 @@
       <c r="K47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="40" t="s">
+      <c r="L47" s="39" t="s">
         <v>134</v>
       </c>
       <c r="M47" s="30" t="s">
@@ -3965,7 +3968,7 @@
       <c r="H48" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I48" s="38">
         <v>1620691200</v>
       </c>
       <c r="J48" s="6">
@@ -3977,7 +3980,7 @@
       <c r="L48" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="41" t="s">
+      <c r="M48" s="40" t="s">
         <v>148</v>
       </c>
       <c r="N48" s="5">
@@ -4012,7 +4015,7 @@
       <c r="H49" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="39">
+      <c r="I49" s="38">
         <v>1620691200</v>
       </c>
       <c r="J49" s="6">
@@ -4024,7 +4027,7 @@
       <c r="L49" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="41" t="s">
+      <c r="M49" s="40" t="s">
         <v>149</v>
       </c>
       <c r="N49" s="5">
@@ -4059,7 +4062,7 @@
       <c r="H50" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="I50" s="39">
+      <c r="I50" s="38">
         <v>1620691200</v>
       </c>
       <c r="J50" s="6">
@@ -4071,7 +4074,7 @@
       <c r="L50" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M50" s="41" t="s">
+      <c r="M50" s="40" t="s">
         <v>152</v>
       </c>
       <c r="N50" s="5">
@@ -4157,10 +4160,10 @@
       <c r="K52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L52" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M52" s="41" t="s">
+      <c r="M52" s="40" t="s">
         <v>156</v>
       </c>
       <c r="N52" s="6">
@@ -4204,10 +4207,10 @@
       <c r="K53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="38" t="s">
+      <c r="L53" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="42" t="s">
+      <c r="M53" s="41" t="s">
         <v>57</v>
       </c>
       <c r="N53" s="6">
@@ -4298,7 +4301,7 @@
       <c r="K55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="40" t="s">
+      <c r="L55" s="39" t="s">
         <v>134</v>
       </c>
       <c r="M55" s="30" t="s">
@@ -4348,7 +4351,7 @@
       <c r="L56" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M56" s="41" t="s">
+      <c r="M56" s="40" t="s">
         <v>162</v>
       </c>
       <c r="N56" s="6">
@@ -4395,7 +4398,7 @@
       <c r="L57" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M57" s="41" t="s">
+      <c r="M57" s="40" t="s">
         <v>163</v>
       </c>
       <c r="N57" s="6">
@@ -4439,10 +4442,10 @@
       <c r="K58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="42" t="s">
+      <c r="L58" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="M58" s="42" t="s">
+      <c r="M58" s="41" t="s">
         <v>57</v>
       </c>
       <c r="N58" s="6">
@@ -4512,11 +4515,17 @@
       <c r="D60" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="E60" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="F60" s="6">
         <v>3</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="I60" s="6">
         <v>1622505600</v>
@@ -4551,7 +4560,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>68</v>
@@ -4574,7 +4583,7 @@
       <c r="K61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L61" s="40" t="s">
+      <c r="L61" s="39" t="s">
         <v>134</v>
       </c>
       <c r="M61" s="30" t="s">
@@ -4598,7 +4607,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F62" s="6">
         <v>1</v>
@@ -4639,7 +4648,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>65</v>
@@ -4756,7 +4765,7 @@
       <c r="K65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="40" t="s">
+      <c r="L65" s="39" t="s">
         <v>134</v>
       </c>
       <c r="M65" s="30" t="s">
